--- a/Traceability link matrix.xlsx
+++ b/Traceability link matrix.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA778274-7275-414D-8461-E9E43D183398}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\etbea\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D48A20-5C2B-4FE4-9E31-7C0C2391A848}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="23">
   <si>
     <t>User</t>
   </si>
@@ -23,53 +28,74 @@
     <t>Match</t>
   </si>
   <si>
-    <t>Pieces</t>
-  </si>
-  <si>
-    <t>User Story 1</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>User Story 2</t>
-  </si>
-  <si>
-    <t>User Story 3</t>
-  </si>
-  <si>
-    <t>User Story 4</t>
-  </si>
-  <si>
-    <t>User Story 5</t>
-  </si>
-  <si>
-    <t>User Story 6</t>
-  </si>
-  <si>
-    <t>User Story 7</t>
-  </si>
-  <si>
-    <t>User Story 8</t>
-  </si>
-  <si>
-    <t>User Story 9</t>
-  </si>
-  <si>
-    <t>User Story 10</t>
-  </si>
-  <si>
-    <t>User Story 11</t>
-  </si>
-  <si>
-    <t>User Story 12</t>
+    <t>GameBoard</t>
+  </si>
+  <si>
+    <t>King</t>
+  </si>
+  <si>
+    <t>Pawn</t>
+  </si>
+  <si>
+    <t>Piece</t>
+  </si>
+  <si>
+    <t>LoginServlet</t>
+  </si>
+  <si>
+    <t>LogoutServlet</t>
+  </si>
+  <si>
+    <t>AddUserServlet</t>
+  </si>
+  <si>
+    <t>UserService</t>
+  </si>
+  <si>
+    <t>UserDao</t>
+  </si>
+  <si>
+    <t>DBUtil</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>#16</t>
+  </si>
+  <si>
+    <t>#17</t>
+  </si>
+  <si>
+    <t>#18</t>
+  </si>
+  <si>
+    <t>#19</t>
+  </si>
+  <si>
+    <t>#25</t>
+  </si>
+  <si>
+    <t>#26</t>
+  </si>
+  <si>
+    <t>#27</t>
+  </si>
+  <si>
+    <t>#31</t>
+  </si>
+  <si>
+    <t>#2</t>
+  </si>
+  <si>
+    <t>#3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -417,116 +443,219 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
       <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="J3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="J5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="D9" s="1"/>
+      <c r="I9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>21</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
